--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2157465.458097388</v>
+        <v>2155213.378386179</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>88.3646269539347</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673316</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>80.71262740536871</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.9812949757281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656052</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505194</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576354</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>224.7837165195618</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943746</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943746</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672846</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672846</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672846</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.878520285689</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1755.936184375951</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1755.936184375951</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1755.936184375951</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1501.251696170064</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1501.251696170064</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.233036999167</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5510,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142522</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.494665572191</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012621</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.404764594808</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194052</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944594</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.40075786968239</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837084.3681224533</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224533</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516055</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752547</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813259</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813243</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
-      <c r="D4" t="n">
-        <v>89744.12305813249</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931167.5261955125</v>
+        <v>-931167.5261955129</v>
       </c>
       <c r="C6" t="n">
-        <v>397577.2195320792</v>
+        <v>397577.2195320798</v>
       </c>
       <c r="D6" t="n">
-        <v>397577.2195320798</v>
+        <v>397577.2195320796</v>
       </c>
       <c r="E6" t="n">
-        <v>148089.2048572109</v>
+        <v>148054.4669317752</v>
       </c>
       <c r="F6" t="n">
-        <v>473501.6666645664</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="G6" t="n">
-        <v>473501.6666645666</v>
+        <v>473466.9287391306</v>
       </c>
       <c r="H6" t="n">
-        <v>473501.6666645663</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="I6" t="n">
-        <v>473501.6666645659</v>
+        <v>473466.9287391305</v>
       </c>
       <c r="J6" t="n">
-        <v>255970.4642672885</v>
+        <v>255935.7263418531</v>
       </c>
       <c r="K6" t="n">
-        <v>473501.666664566</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="L6" t="n">
-        <v>473501.6666645661</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="M6" t="n">
-        <v>388446.6387290542</v>
+        <v>388411.9008036185</v>
       </c>
       <c r="N6" t="n">
-        <v>473501.6666645662</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="O6" t="n">
-        <v>473501.666664566</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="P6" t="n">
-        <v>473501.6666645661</v>
+        <v>473466.92873913</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112259</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795434099</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>276.9082648170728</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659871</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718947</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>109.0563979260732</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>240.2596737416849</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.575699570821598e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899088</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
